--- a/excel/2024.xlsx
+++ b/excel/2024.xlsx
@@ -279,7 +279,7 @@
     <t>TCS Ninja</t>
   </si>
   <si>
-    <t>2.2 LPA</t>
+    <t>3.3 LPA</t>
   </si>
   <si>
     <t>TCS Digital</t>
